--- a/output/Tables/Linear/HIA_global.xlsx
+++ b/output/Tables/Linear/HIA_global.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -363,11 +363,51 @@
           <t>disease</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tot_cases</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tot_daly</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tot_medic_costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tot_soc_costs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>all</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>59085.751 (39478.858 - 81593.631 )</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>214121.708 (115051.592 - 320952.538 )</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1294.725 (827.183 - 1838.602 )</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28481.685 (15304.134 - 42675.488 )</t>
         </is>
       </c>
     </row>
